--- a/report/work_times.xlsx
+++ b/report/work_times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicmaes/Documents/BUT INFORMATIQUE/2ème Année/S3/T3/git/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loïc\Documents\BUT Informatique\2ème année\S3\T3\fork\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D899A112-59BB-AB45-B135-6F0C906D8980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA436E96-590D-406E-82C0-58F8F6D7988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{13B46011-2901-2047-AB58-45181D1771DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13B46011-2901-2047-AB58-45181D1771DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Loïc" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Elies" sheetId="3" r:id="rId3"/>
     <sheet name="Simon" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,8 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -89,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,18 +410,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C437943-EE44-0141-8711-7DC435836448}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,1030 +435,1034 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2">
-        <f>B2-A2</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="C2" s="2">
+        <f>(B2-A2)*24</f>
+        <v>1.2833333333333328</v>
+      </c>
+      <c r="E2" s="2">
         <f>SUM(C2:C129)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2833333333333328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">(B3-A3)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67">
-        <f t="shared" ref="C67:C129" si="1">B67-A67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C129" si="1">(B67-A67)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C112" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C115" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C116" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C117" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C118" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C121" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C122" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C124" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C125" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-      <c r="C127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129">
+      <c r="C129" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1474,14 +1480,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2">
@@ -1507,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3">
@@ -1515,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -1523,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -1539,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -1547,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -1563,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10">
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11">
@@ -1579,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12">
@@ -1587,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13">
@@ -1595,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14">
@@ -1603,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15">
@@ -1611,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16">
@@ -1619,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17">
@@ -1627,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18">
@@ -1635,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19">
@@ -1643,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20">
@@ -1651,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21">
@@ -1659,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22">
@@ -1667,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23">
@@ -1675,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24">
@@ -1683,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25">
@@ -1691,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26">
@@ -1699,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27">
@@ -1707,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28">
@@ -1715,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29">
@@ -1723,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30">
@@ -1731,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31">
@@ -1739,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32">
@@ -1747,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33">
@@ -1755,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34">
@@ -1763,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35">
@@ -1771,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36">
@@ -1779,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37">
@@ -1787,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38">
@@ -1795,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39">
@@ -1803,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40">
@@ -1811,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41">
@@ -1819,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42">
@@ -1827,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43">
@@ -1835,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44">
@@ -1843,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45">
@@ -1851,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46">
@@ -1859,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47">
@@ -1867,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48">
@@ -1875,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49">
@@ -1883,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50">
@@ -1891,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51">
@@ -1899,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52">
@@ -1907,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53">
@@ -1915,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54">
@@ -1923,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55">
@@ -1931,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56">
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57">
@@ -1947,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58">
@@ -1955,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59">
@@ -1963,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60">
@@ -1971,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61">
@@ -1979,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62">
@@ -1987,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63">
@@ -1995,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64">
@@ -2003,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65">
@@ -2011,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66">
@@ -2019,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67">
@@ -2027,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68">
@@ -2035,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69">
@@ -2043,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70">
@@ -2051,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71">
@@ -2059,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72">
@@ -2067,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73">
@@ -2075,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74">
@@ -2083,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75">
@@ -2091,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76">
@@ -2099,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77">
@@ -2107,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78">
@@ -2115,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79">
@@ -2123,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80">
@@ -2131,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81">
@@ -2139,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82">
@@ -2147,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83">
@@ -2155,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84">
@@ -2163,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85">
@@ -2171,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86">
@@ -2179,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87">
@@ -2187,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88">
@@ -2195,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89">
@@ -2203,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90">
@@ -2211,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91">
@@ -2219,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92">
@@ -2227,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93">
@@ -2235,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94">
@@ -2243,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95">
@@ -2251,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96">
@@ -2259,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97">
@@ -2267,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98">
@@ -2275,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99">
@@ -2283,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100">
@@ -2291,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101">
@@ -2299,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102">
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103">
@@ -2315,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104">
@@ -2323,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105">
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106">
@@ -2339,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107">
@@ -2347,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108">
@@ -2355,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109">
@@ -2363,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110">
@@ -2371,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111">
@@ -2379,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112">
@@ -2387,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113">
@@ -2395,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114">
@@ -2403,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115">
@@ -2411,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116">
@@ -2419,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117">
@@ -2427,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118">
@@ -2435,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119">
@@ -2443,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120">
@@ -2451,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121">
@@ -2459,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122">
@@ -2467,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123">
@@ -2475,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124">
@@ -2483,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125">
@@ -2491,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126">
@@ -2499,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127">
@@ -2507,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128">
@@ -2515,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129">
@@ -2536,14 +2542,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2">
@@ -2569,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3">
@@ -2577,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -2585,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -2593,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -2601,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -2609,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -2617,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -2625,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10">
@@ -2633,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11">
@@ -2641,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12">
@@ -2649,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13">
@@ -2657,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14">
@@ -2665,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15">
@@ -2673,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16">
@@ -2681,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17">
@@ -2689,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18">
@@ -2697,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19">
@@ -2705,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20">
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21">
@@ -2721,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22">
@@ -2729,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23">
@@ -2737,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24">
@@ -2745,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25">
@@ -2753,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26">
@@ -2761,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27">
@@ -2769,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28">
@@ -2777,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29">
@@ -2785,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30">
@@ -2793,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31">
@@ -2801,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32">
@@ -2809,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33">
@@ -2817,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34">
@@ -2825,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35">
@@ -2833,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36">
@@ -2841,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37">
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38">
@@ -2857,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39">
@@ -2865,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40">
@@ -2873,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41">
@@ -2881,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42">
@@ -2889,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43">
@@ -2897,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44">
@@ -2905,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45">
@@ -2913,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46">
@@ -2921,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47">
@@ -2929,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48">
@@ -2937,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49">
@@ -2945,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50">
@@ -2953,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51">
@@ -2961,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52">
@@ -2969,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53">
@@ -2977,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54">
@@ -2985,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55">
@@ -2993,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56">
@@ -3001,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57">
@@ -3009,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58">
@@ -3017,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59">
@@ -3025,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60">
@@ -3033,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61">
@@ -3041,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62">
@@ -3049,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63">
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64">
@@ -3065,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65">
@@ -3073,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66">
@@ -3081,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67">
@@ -3089,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68">
@@ -3097,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69">
@@ -3105,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70">
@@ -3113,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71">
@@ -3121,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72">
@@ -3129,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73">
@@ -3137,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74">
@@ -3145,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75">
@@ -3153,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76">
@@ -3161,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77">
@@ -3169,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78">
@@ -3177,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79">
@@ -3185,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80">
@@ -3193,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81">
@@ -3201,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82">
@@ -3209,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83">
@@ -3217,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84">
@@ -3225,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85">
@@ -3233,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86">
@@ -3241,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87">
@@ -3249,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88">
@@ -3257,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89">
@@ -3265,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90">
@@ -3273,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91">
@@ -3281,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92">
@@ -3289,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93">
@@ -3297,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94">
@@ -3305,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95">
@@ -3313,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96">
@@ -3321,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97">
@@ -3329,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98">
@@ -3337,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99">
@@ -3345,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100">
@@ -3353,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101">
@@ -3361,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102">
@@ -3369,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103">
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104">
@@ -3385,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105">
@@ -3393,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106">
@@ -3401,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107">
@@ -3409,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108">
@@ -3417,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109">
@@ -3425,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110">
@@ -3433,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111">
@@ -3441,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112">
@@ -3449,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113">
@@ -3457,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114">
@@ -3465,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115">
@@ -3473,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116">
@@ -3481,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117">
@@ -3489,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118">
@@ -3497,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119">
@@ -3505,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120">
@@ -3513,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121">
@@ -3521,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122">
@@ -3529,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123">
@@ -3537,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124">
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125">
@@ -3553,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126">
@@ -3561,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127">
@@ -3569,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128">
@@ -3577,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129">
@@ -3594,18 +3600,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BD37B5-999A-7C4F-A795-39518A7EBC6B}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3619,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2">
@@ -3631,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3">
@@ -3639,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4">
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5">
@@ -3655,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6">
@@ -3663,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -3671,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -3679,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9">
@@ -3687,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10">
@@ -3695,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11">
@@ -3703,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12">
@@ -3711,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13">
@@ -3719,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14">
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15">
@@ -3735,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16">
@@ -3743,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17">
@@ -3751,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18">
@@ -3759,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19">
@@ -3767,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20">
@@ -3775,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21">
@@ -3783,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22">
@@ -3791,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23">
@@ -3799,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24">
@@ -3807,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25">
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26">
@@ -3823,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27">
@@ -3831,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28">
@@ -3839,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29">
@@ -3847,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30">
@@ -3855,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31">
@@ -3863,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32">
@@ -3871,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33">
@@ -3879,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34">
@@ -3887,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35">
@@ -3895,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36">
@@ -3903,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37">
@@ -3911,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38">
@@ -3919,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39">
@@ -3927,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40">
@@ -3935,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41">
@@ -3943,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42">
@@ -3951,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43">
@@ -3959,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44">
@@ -3967,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45">
@@ -3975,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46">
@@ -3983,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47">
@@ -3991,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48">
@@ -3999,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49">
@@ -4007,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50">
@@ -4015,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51">
@@ -4023,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52">
@@ -4031,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53">
@@ -4039,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54">
@@ -4047,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55">
@@ -4055,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56">
@@ -4063,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57">
@@ -4071,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58">
@@ -4079,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59">
@@ -4087,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60">
@@ -4095,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61">
@@ -4103,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62">
@@ -4111,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63">
@@ -4119,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64">
@@ -4127,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65">
@@ -4135,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66">
@@ -4143,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67">
@@ -4151,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68">
@@ -4159,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69">
@@ -4167,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70">
@@ -4175,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71">
@@ -4183,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72">
@@ -4191,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73">
@@ -4199,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74">
@@ -4207,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75">
@@ -4215,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76">
@@ -4223,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77">
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78">
@@ -4239,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79">
@@ -4247,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80">
@@ -4255,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81">
@@ -4263,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82">
@@ -4271,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83">
@@ -4279,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84">
@@ -4287,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85">
@@ -4295,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86">
@@ -4303,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87">
@@ -4311,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88">
@@ -4319,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89">
@@ -4327,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90">
@@ -4335,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91">
@@ -4343,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92">
@@ -4351,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93">
@@ -4359,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94">
@@ -4367,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95">
@@ -4375,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96">
@@ -4383,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97">
@@ -4391,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98">
@@ -4399,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99">
@@ -4407,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100">
@@ -4415,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101">
@@ -4423,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102">
@@ -4431,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103">
@@ -4439,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104">
@@ -4447,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105">
@@ -4455,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106">
@@ -4463,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107">
@@ -4471,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108">
@@ -4479,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109">
@@ -4487,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110">
@@ -4495,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111">
@@ -4503,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112">
@@ -4511,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113">
@@ -4519,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114">
@@ -4527,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115">
@@ -4535,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116">
@@ -4543,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117">
@@ -4551,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118">
@@ -4559,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119">
@@ -4567,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120">
@@ -4575,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121">
@@ -4583,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122">
@@ -4591,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123">
@@ -4599,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124">
@@ -4607,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125">
@@ -4615,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126">
@@ -4623,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127">
@@ -4631,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128">
@@ -4639,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129">
